--- a/data/processed/unmatched_columns/unmatched_湖南中医药高等专科学校.xlsx
+++ b/data/processed/unmatched_columns/unmatched_湖南中医药高等专科学校.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>学费
-（元/年）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>_源文件</t>
         </is>
       </c>
@@ -459,11 +453,6 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5460</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -476,11 +465,6 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5460</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -493,11 +477,6 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5460</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -510,11 +489,6 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -527,11 +501,6 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5460</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -544,11 +513,6 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5460</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -561,11 +525,6 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -578,11 +537,6 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -595,11 +549,6 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -612,11 +561,6 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5460</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -629,11 +573,6 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5460</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -646,11 +585,6 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5460</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -663,11 +597,6 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -680,11 +609,6 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5460</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -697,11 +621,6 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5460</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -714,11 +633,6 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3500</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -731,11 +645,6 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5460</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
       </c>
@@ -747,11 +656,6 @@
         </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>湖南中医药高等专科学校.xlsx</t>
         </is>
